--- a/Documentation/prox_system/prox_system_BOM.xlsx
+++ b/Documentation/prox_system/prox_system_BOM.xlsx
@@ -842,6 +842,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -850,18 +853,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="88" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="87.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="15" width="12" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="1.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1954,7 +1958,7 @@
     <hyperlink ref="G2" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId62"/>
+  <pageSetup scale="49" orientation="landscape" r:id="rId62"/>
   <tableParts count="1">
     <tablePart r:id="rId63"/>
   </tableParts>

--- a/Documentation/prox_system/prox_system_BOM.xlsx
+++ b/Documentation/prox_system/prox_system_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6255"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
   <si>
     <t>Column10</t>
   </si>
@@ -96,21 +96,9 @@
     <t>2 pin polar</t>
   </si>
   <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>22-23-2021</t>
-  </si>
-  <si>
     <t>Sparkfun</t>
   </si>
   <si>
-    <t>PRT-08232</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8232</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -186,12 +174,6 @@
     <t>http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/8233</t>
-  </si>
-  <si>
-    <t>PRT-08233</t>
-  </si>
-  <si>
     <t>16MHz</t>
   </si>
   <si>
@@ -273,18 +255,6 @@
     <t>3 pin polar</t>
   </si>
   <si>
-    <t>22-23-2051</t>
-  </si>
-  <si>
-    <t>PRT-08230</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8230</t>
-  </si>
-  <si>
-    <t>22-23-2031</t>
-  </si>
-  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -321,24 +291,6 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>PRT-08095 </t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8095</t>
-  </si>
-  <si>
-    <t>PRT-08096</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8096</t>
-  </si>
-  <si>
-    <t>PRT-08098</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8098</t>
-  </si>
-  <si>
     <t>Ultrasonic</t>
   </si>
   <si>
@@ -409,6 +361,54 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/116?</t>
+  </si>
+  <si>
+    <t>Molex Inc</t>
+  </si>
+  <si>
+    <t>WM4200-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667</t>
+  </si>
+  <si>
+    <t>WM4201-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669</t>
+  </si>
+  <si>
+    <t>WM4203-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673</t>
+  </si>
+  <si>
+    <t>WM2011-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991</t>
+  </si>
+  <si>
+    <t>WM2012-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992</t>
+  </si>
+  <si>
+    <t>WM2014-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>PRT-08619</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8619?</t>
   </si>
 </sst>
 </file>
@@ -531,10 +531,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0">
   <autoFilter ref="A1:K26"/>
-  <sortState ref="A2:K29">
-    <sortCondition ref="A2:A29"/>
-    <sortCondition ref="F2:F29"/>
-    <sortCondition ref="K2:K29"/>
+  <sortState ref="A2:K26">
+    <sortCondition ref="A2:A26"/>
+    <sortCondition ref="F2:F26"/>
+    <sortCondition ref="K2:K26"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
@@ -847,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -900,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -929,13 +929,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="I2" s="6">
         <v>1.5</v>
@@ -953,35 +953,35 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1">
-        <v>0.52</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
       </c>
       <c r="K3" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.04</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -989,35 +989,35 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="J4" s="3">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.57999999999999996</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1">
         <v>0.2</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3">
         <v>20</v>
@@ -1069,23 +1069,23 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="I6" s="6">
         <v>1.95</v>
       </c>
       <c r="J6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>7.8</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1094,22 +1094,22 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I7" s="4">
         <v>0.35</v>
@@ -1127,23 +1127,23 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>85</v>
+      <c r="D8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="5">
+        <v>22232051</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="I8" s="6">
         <v>0.45</v>
@@ -1161,33 +1161,33 @@
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>88</v>
+      <c r="D9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="5">
+        <v>22232031</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="I9" s="6">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="J9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>2.25</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1198,30 +1198,30 @@
         <v>25</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
+      <c r="D10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="5">
+        <v>22232021</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="I10" s="4">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="J10" s="3">
         <v>16</v>
       </c>
       <c r="K10" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>7.2</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1233,19 +1233,19 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I11" s="4">
         <v>0.69</v>
@@ -1260,96 +1260,104 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="D12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="5">
+        <v>22012057</v>
+      </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="I12" s="6">
-        <v>0.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.8</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" t="s">
-        <v>26</v>
+      <c r="D13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="5">
+        <v>22012037</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="I13" s="6">
-        <v>0.45</v>
+        <v>0.18</v>
       </c>
       <c r="J13" s="3">
         <v>6</v>
       </c>
       <c r="K13" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>2.7</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" t="s">
-        <v>26</v>
+      <c r="D14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="5">
+        <v>22012027</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="I14" s="6">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="J14" s="3">
         <v>16</v>
       </c>
       <c r="K14" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1361,19 +1369,19 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I15" s="4">
         <v>0.43</v>
@@ -1388,26 +1396,26 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I16" s="6">
         <v>3.31</v>
@@ -1422,25 +1430,25 @@
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G17" s="9">
         <v>4986181</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I17" s="6">
         <v>12.69</v>
@@ -1455,35 +1463,29 @@
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>65</v>
+        <v>106</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="I18" s="6">
-        <v>0.08</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.08</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1491,232 +1493,251 @@
         <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I19" s="6">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J19" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>75</v>
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="I20" s="6">
-        <v>1.95</v>
+        <v>0.05</v>
       </c>
       <c r="J20" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K20" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>15.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="I21" s="6">
         <v>1.95</v>
       </c>
       <c r="J21" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K21" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.9</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="I22" s="6">
-        <v>0.35</v>
+        <v>1.95</v>
       </c>
       <c r="J22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.35</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I23" s="6">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="J23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.76</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>109</v>
+        <v>72</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="I24" s="6">
-        <v>49.95</v>
+        <v>0.19</v>
       </c>
       <c r="J24" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>49.95</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="I25" s="6">
         <v>49.95</v>
       </c>
       <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="6">
+        <v>49.95</v>
+      </c>
+      <c r="J26" s="3">
         <v>2</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K26" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>99.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1729,7 +1750,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>224.62</v>
+        <v>219.57</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1899,68 +1920,76 @@
     <hyperlink ref="G16" r:id="rId2" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
     <hyperlink ref="E16" r:id="rId3" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
     <hyperlink ref="D16" r:id="rId4" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
-    <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="H9" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H23" r:id="rId9"/>
-    <hyperlink ref="G23" r:id="rId10" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="E23" r:id="rId11" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="D23" r:id="rId12" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="G22" r:id="rId13"/>
-    <hyperlink ref="H22" r:id="rId14"/>
-    <hyperlink ref="H19" r:id="rId15"/>
-    <hyperlink ref="H18" r:id="rId16"/>
-    <hyperlink ref="G19" r:id="rId17" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="E19" r:id="rId18" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="D19" r:id="rId19" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="G18" r:id="rId20" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="E18" r:id="rId21" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="D18" r:id="rId22" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="H7" r:id="rId23"/>
-    <hyperlink ref="G7" r:id="rId24" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="E7" r:id="rId25" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="D7" r:id="rId26" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
-    <hyperlink ref="H10" r:id="rId27"/>
-    <hyperlink ref="G10" r:id="rId28" display="PRT-08232"/>
-    <hyperlink ref="H15" r:id="rId29"/>
-    <hyperlink ref="G15" r:id="rId30" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="E15" r:id="rId31" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="D15" r:id="rId32" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
-    <hyperlink ref="E11" r:id="rId33" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
-    <hyperlink ref="G11" r:id="rId34" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
-    <hyperlink ref="D11" r:id="rId35" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="G3" r:id="rId36" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
-    <hyperlink ref="E3" r:id="rId37" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
-    <hyperlink ref="H5" r:id="rId38"/>
-    <hyperlink ref="D3" r:id="rId39" display="http://digikey.com/Suppliers/us/Panasonic-Electronic-Components.page?lang=en"/>
-    <hyperlink ref="G5" r:id="rId40" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
-    <hyperlink ref="E5" r:id="rId41" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
-    <hyperlink ref="D5" r:id="rId42" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="G4" r:id="rId43" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
-    <hyperlink ref="E4" r:id="rId44" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
-    <hyperlink ref="D4" r:id="rId45" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="H6" r:id="rId46"/>
-    <hyperlink ref="G6" r:id="rId47"/>
-    <hyperlink ref="H14" r:id="rId48"/>
-    <hyperlink ref="G14" r:id="rId49"/>
-    <hyperlink ref="G13" r:id="rId50"/>
-    <hyperlink ref="H12" r:id="rId51"/>
-    <hyperlink ref="H13" r:id="rId52"/>
-    <hyperlink ref="G12" r:id="rId53"/>
-    <hyperlink ref="H24" r:id="rId54"/>
-    <hyperlink ref="H25" r:id="rId55"/>
-    <hyperlink ref="G25" r:id="rId56"/>
-    <hyperlink ref="G24" r:id="rId57"/>
-    <hyperlink ref="G20" r:id="rId58"/>
-    <hyperlink ref="G21" r:id="rId59"/>
-    <hyperlink ref="G17" r:id="rId60" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
-    <hyperlink ref="G2" r:id="rId61"/>
+    <hyperlink ref="H24" r:id="rId5"/>
+    <hyperlink ref="G24" r:id="rId6" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="E24" r:id="rId7" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="D24" r:id="rId8" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="G23" r:id="rId9"/>
+    <hyperlink ref="H23" r:id="rId10"/>
+    <hyperlink ref="H20" r:id="rId11"/>
+    <hyperlink ref="H19" r:id="rId12"/>
+    <hyperlink ref="G20" r:id="rId13" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="E20" r:id="rId14" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="D20" r:id="rId15" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="G19" r:id="rId16" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="E19" r:id="rId17" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="D19" r:id="rId18" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="H7" r:id="rId19"/>
+    <hyperlink ref="G7" r:id="rId20" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="E7" r:id="rId21" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="D7" r:id="rId22" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
+    <hyperlink ref="H15" r:id="rId23"/>
+    <hyperlink ref="G15" r:id="rId24" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="E15" r:id="rId25" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="D15" r:id="rId26" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
+    <hyperlink ref="E11" r:id="rId27" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="G11" r:id="rId28" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="D11" r:id="rId29" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="G4" r:id="rId30" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
+    <hyperlink ref="E4" r:id="rId31" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
+    <hyperlink ref="H5" r:id="rId32"/>
+    <hyperlink ref="D4" r:id="rId33" display="http://digikey.com/Suppliers/us/Panasonic-Electronic-Components.page?lang=en"/>
+    <hyperlink ref="G5" r:id="rId34" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
+    <hyperlink ref="E5" r:id="rId35" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
+    <hyperlink ref="D5" r:id="rId36" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
+    <hyperlink ref="G3" r:id="rId37" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
+    <hyperlink ref="E3" r:id="rId38" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
+    <hyperlink ref="D3" r:id="rId39" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
+    <hyperlink ref="H6" r:id="rId40"/>
+    <hyperlink ref="G6" r:id="rId41"/>
+    <hyperlink ref="H25" r:id="rId42"/>
+    <hyperlink ref="H26" r:id="rId43"/>
+    <hyperlink ref="G26" r:id="rId44"/>
+    <hyperlink ref="G25" r:id="rId45"/>
+    <hyperlink ref="G21" r:id="rId46"/>
+    <hyperlink ref="G22" r:id="rId47"/>
+    <hyperlink ref="G17" r:id="rId48" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
+    <hyperlink ref="G2" r:id="rId49"/>
+    <hyperlink ref="E10" r:id="rId50" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="D8" r:id="rId51" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="D9" r:id="rId52" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="D10" r:id="rId53" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G10" r:id="rId54" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="E9" r:id="rId55" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
+    <hyperlink ref="G9" r:id="rId56" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
+    <hyperlink ref="E8" r:id="rId57" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="G8" r:id="rId58" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="H8" r:id="rId59"/>
+    <hyperlink ref="D12" r:id="rId60" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="D13" r:id="rId61" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="D14" r:id="rId62" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E14" r:id="rId63" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
+    <hyperlink ref="G14" r:id="rId64" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
+    <hyperlink ref="E13" r:id="rId65" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
+    <hyperlink ref="G13" r:id="rId66" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
+    <hyperlink ref="G12" r:id="rId67"/>
+    <hyperlink ref="E12" r:id="rId68" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
+    <hyperlink ref="G18" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="49" orientation="landscape" r:id="rId62"/>
+  <pageSetup scale="49" orientation="landscape" r:id="rId70"/>
   <tableParts count="1">
-    <tablePart r:id="rId63"/>
+    <tablePart r:id="rId71"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/prox_system/prox_system_BOM.xlsx
+++ b/Documentation/prox_system/prox_system_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="4170"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="131">
   <si>
     <t>Column10</t>
   </si>
@@ -96,9 +96,21 @@
     <t>2 pin polar</t>
   </si>
   <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>22-23-2021</t>
+  </si>
+  <si>
     <t>Sparkfun</t>
   </si>
   <si>
+    <t>PRT-08232</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8232</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -174,6 +186,12 @@
     <t>http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264</t>
   </si>
   <si>
+    <t>https://www.sparkfun.com/products/8233</t>
+  </si>
+  <si>
+    <t>PRT-08233</t>
+  </si>
+  <si>
     <t>16MHz</t>
   </si>
   <si>
@@ -255,6 +273,18 @@
     <t>3 pin polar</t>
   </si>
   <si>
+    <t>22-23-2051</t>
+  </si>
+  <si>
+    <t>PRT-08230</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8230</t>
+  </si>
+  <si>
+    <t>22-23-2031</t>
+  </si>
+  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -291,6 +321,24 @@
     <t>Housing</t>
   </si>
   <si>
+    <t>PRT-08095 </t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8095</t>
+  </si>
+  <si>
+    <t>PRT-08096</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8096</t>
+  </si>
+  <si>
+    <t>PRT-08098</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8098</t>
+  </si>
+  <si>
     <t>Ultrasonic</t>
   </si>
   <si>
@@ -361,54 +409,6 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/116?</t>
-  </si>
-  <si>
-    <t>Molex Inc</t>
-  </si>
-  <si>
-    <t>WM4200-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667</t>
-  </si>
-  <si>
-    <t>WM4201-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669</t>
-  </si>
-  <si>
-    <t>WM4203-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673</t>
-  </si>
-  <si>
-    <t>WM2011-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991</t>
-  </si>
-  <si>
-    <t>WM2012-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992</t>
-  </si>
-  <si>
-    <t>WM2014-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057</t>
-  </si>
-  <si>
-    <t>PTH</t>
-  </si>
-  <si>
-    <t>PRT-08619</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8619?</t>
   </si>
 </sst>
 </file>
@@ -531,10 +531,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K26" totalsRowShown="0">
   <autoFilter ref="A1:K26"/>
-  <sortState ref="A2:K26">
-    <sortCondition ref="A2:A26"/>
-    <sortCondition ref="F2:F26"/>
-    <sortCondition ref="K2:K26"/>
+  <sortState ref="A2:K29">
+    <sortCondition ref="A2:A29"/>
+    <sortCondition ref="F2:F29"/>
+    <sortCondition ref="K2:K29"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
@@ -847,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -900,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -929,13 +929,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="I2" s="6">
         <v>1.5</v>
@@ -953,35 +953,35 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
       </c>
       <c r="K3" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.57999999999999996</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -989,35 +989,35 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1">
-        <v>0.52</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J4" s="3">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.04</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1">
         <v>0.2</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3">
         <v>20</v>
@@ -1069,23 +1069,23 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I6" s="6">
         <v>1.95</v>
       </c>
       <c r="J6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>5.85</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1094,22 +1094,22 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I7" s="4">
         <v>0.35</v>
@@ -1127,23 +1127,23 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="5">
-        <v>22232051</v>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="I8" s="6">
         <v>0.45</v>
@@ -1161,33 +1161,33 @@
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="5">
-        <v>22232031</v>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="I9" s="6">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="J9" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.7999999999999998</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1198,30 +1198,30 @@
         <v>25</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="5">
-        <v>22232021</v>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="I10" s="4">
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="J10" s="3">
         <v>16</v>
       </c>
       <c r="K10" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.04</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1233,19 +1233,19 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I11" s="4">
         <v>0.69</v>
@@ -1260,104 +1260,96 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="5">
-        <v>22012057</v>
-      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I12" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.57999999999999996</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="5">
-        <v>22012037</v>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="I13" s="6">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="J13" s="3">
         <v>6</v>
       </c>
       <c r="K13" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.08</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="5">
-        <v>22012027</v>
+      <c r="D14" t="s">
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="I14" s="6">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="J14" s="3">
         <v>16</v>
       </c>
       <c r="K14" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1369,19 +1361,19 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I15" s="4">
         <v>0.43</v>
@@ -1396,26 +1388,26 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I16" s="6">
         <v>3.31</v>
@@ -1430,25 +1422,25 @@
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G17" s="9">
         <v>4986181</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="I17" s="6">
         <v>12.69</v>
@@ -1463,29 +1455,35 @@
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="I18" s="6">
-        <v>9.9499999999999993</v>
+        <v>0.08</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>9.9499999999999993</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1493,251 +1491,232 @@
         <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I19" s="6">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K19" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>63</v>
+        <v>115</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="I20" s="6">
-        <v>0.05</v>
+        <v>1.95</v>
       </c>
       <c r="J20" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K20" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.75</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>118</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I21" s="6">
         <v>1.95</v>
       </c>
       <c r="J21" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K21" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>15.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="I22" s="6">
-        <v>1.95</v>
+        <v>0.35</v>
       </c>
       <c r="J22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.9</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I23" s="6">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="J23" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.35</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>74</v>
+        <v>114</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="I24" s="6">
-        <v>0.19</v>
+        <v>49.95</v>
       </c>
       <c r="J24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.76</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="I25" s="6">
         <v>49.95</v>
       </c>
       <c r="J25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>49.95</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="6">
-        <v>49.95</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>99.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1750,7 +1729,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>219.57</v>
+        <v>224.62</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1920,76 +1899,68 @@
     <hyperlink ref="G16" r:id="rId2" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
     <hyperlink ref="E16" r:id="rId3" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
     <hyperlink ref="D16" r:id="rId4" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
-    <hyperlink ref="H24" r:id="rId5"/>
-    <hyperlink ref="G24" r:id="rId6" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="E24" r:id="rId7" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="D24" r:id="rId8" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="G23" r:id="rId9"/>
-    <hyperlink ref="H23" r:id="rId10"/>
-    <hyperlink ref="H20" r:id="rId11"/>
-    <hyperlink ref="H19" r:id="rId12"/>
-    <hyperlink ref="G20" r:id="rId13" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="E20" r:id="rId14" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="D20" r:id="rId15" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="G19" r:id="rId16" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="E19" r:id="rId17" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="D19" r:id="rId18" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="H7" r:id="rId19"/>
-    <hyperlink ref="G7" r:id="rId20" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="E7" r:id="rId21" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="D7" r:id="rId22" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
-    <hyperlink ref="H15" r:id="rId23"/>
-    <hyperlink ref="G15" r:id="rId24" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="E15" r:id="rId25" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="D15" r:id="rId26" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
-    <hyperlink ref="E11" r:id="rId27" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
-    <hyperlink ref="G11" r:id="rId28" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
-    <hyperlink ref="D11" r:id="rId29" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="G4" r:id="rId30" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
-    <hyperlink ref="E4" r:id="rId31" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
-    <hyperlink ref="H5" r:id="rId32"/>
-    <hyperlink ref="D4" r:id="rId33" display="http://digikey.com/Suppliers/us/Panasonic-Electronic-Components.page?lang=en"/>
-    <hyperlink ref="G5" r:id="rId34" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
-    <hyperlink ref="E5" r:id="rId35" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
-    <hyperlink ref="D5" r:id="rId36" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="G3" r:id="rId37" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
-    <hyperlink ref="E3" r:id="rId38" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
-    <hyperlink ref="D3" r:id="rId39" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="H6" r:id="rId40"/>
-    <hyperlink ref="G6" r:id="rId41"/>
-    <hyperlink ref="H25" r:id="rId42"/>
-    <hyperlink ref="H26" r:id="rId43"/>
-    <hyperlink ref="G26" r:id="rId44"/>
-    <hyperlink ref="G25" r:id="rId45"/>
-    <hyperlink ref="G21" r:id="rId46"/>
-    <hyperlink ref="G22" r:id="rId47"/>
-    <hyperlink ref="G17" r:id="rId48" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
-    <hyperlink ref="G2" r:id="rId49"/>
-    <hyperlink ref="E10" r:id="rId50" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="D8" r:id="rId51" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D9" r:id="rId52" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D10" r:id="rId53" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="G10" r:id="rId54" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="E9" r:id="rId55" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="G9" r:id="rId56" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="E8" r:id="rId57" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="G8" r:id="rId58" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="H8" r:id="rId59"/>
-    <hyperlink ref="D12" r:id="rId60" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D13" r:id="rId61" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D14" r:id="rId62" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E14" r:id="rId63" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
-    <hyperlink ref="G14" r:id="rId64" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
-    <hyperlink ref="E13" r:id="rId65" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
-    <hyperlink ref="G13" r:id="rId66" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
-    <hyperlink ref="G12" r:id="rId67"/>
-    <hyperlink ref="E12" r:id="rId68" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
-    <hyperlink ref="G18" r:id="rId69"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="H9" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="H8" r:id="rId8"/>
+    <hyperlink ref="H23" r:id="rId9"/>
+    <hyperlink ref="G23" r:id="rId10" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="E23" r:id="rId11" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="D23" r:id="rId12" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="G22" r:id="rId13"/>
+    <hyperlink ref="H22" r:id="rId14"/>
+    <hyperlink ref="H19" r:id="rId15"/>
+    <hyperlink ref="H18" r:id="rId16"/>
+    <hyperlink ref="G19" r:id="rId17" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="E19" r:id="rId18" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="D19" r:id="rId19" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="G18" r:id="rId20" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="E18" r:id="rId21" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="D18" r:id="rId22" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="H7" r:id="rId23"/>
+    <hyperlink ref="G7" r:id="rId24" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="E7" r:id="rId25" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="D7" r:id="rId26" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
+    <hyperlink ref="H10" r:id="rId27"/>
+    <hyperlink ref="G10" r:id="rId28" display="PRT-08232"/>
+    <hyperlink ref="H15" r:id="rId29"/>
+    <hyperlink ref="G15" r:id="rId30" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="E15" r:id="rId31" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="D15" r:id="rId32" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
+    <hyperlink ref="E11" r:id="rId33" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="G11" r:id="rId34" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="D11" r:id="rId35" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="G3" r:id="rId36" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
+    <hyperlink ref="E3" r:id="rId37" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
+    <hyperlink ref="H5" r:id="rId38"/>
+    <hyperlink ref="D3" r:id="rId39" display="http://digikey.com/Suppliers/us/Panasonic-Electronic-Components.page?lang=en"/>
+    <hyperlink ref="G5" r:id="rId40" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
+    <hyperlink ref="E5" r:id="rId41" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
+    <hyperlink ref="D5" r:id="rId42" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
+    <hyperlink ref="G4" r:id="rId43" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
+    <hyperlink ref="E4" r:id="rId44" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
+    <hyperlink ref="D4" r:id="rId45" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
+    <hyperlink ref="H6" r:id="rId46"/>
+    <hyperlink ref="G6" r:id="rId47"/>
+    <hyperlink ref="H14" r:id="rId48"/>
+    <hyperlink ref="G14" r:id="rId49"/>
+    <hyperlink ref="G13" r:id="rId50"/>
+    <hyperlink ref="H12" r:id="rId51"/>
+    <hyperlink ref="H13" r:id="rId52"/>
+    <hyperlink ref="G12" r:id="rId53"/>
+    <hyperlink ref="H24" r:id="rId54"/>
+    <hyperlink ref="H25" r:id="rId55"/>
+    <hyperlink ref="G25" r:id="rId56"/>
+    <hyperlink ref="G24" r:id="rId57"/>
+    <hyperlink ref="G20" r:id="rId58"/>
+    <hyperlink ref="G21" r:id="rId59"/>
+    <hyperlink ref="G17" r:id="rId60" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
+    <hyperlink ref="G2" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="49" orientation="landscape" r:id="rId70"/>
+  <pageSetup scale="49" orientation="landscape" r:id="rId62"/>
   <tableParts count="1">
-    <tablePart r:id="rId71"/>
+    <tablePart r:id="rId63"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/prox_system/prox_system_BOM.xlsx
+++ b/Documentation/prox_system/prox_system_BOM.xlsx
@@ -847,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1747,10 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7">
+        <f>SUM(Table3[Quantity])</f>
+        <v>108</v>
+      </c>
       <c r="K28" s="8">
         <f>SUM(Table3[Total])</f>
         <v>219.57</v>

--- a/Documentation/prox_system/prox_system_BOM.xlsx
+++ b/Documentation/prox_system/prox_system_BOM.xlsx
@@ -327,15 +327,6 @@
     <t>Socket</t>
   </si>
   <si>
-    <t>14 pin</t>
-  </si>
-  <si>
-    <t>PRT-08113</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8113</t>
-  </si>
-  <si>
     <t>Protoboard</t>
   </si>
   <si>
@@ -409,6 +400,15 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/8619?</t>
+  </si>
+  <si>
+    <t>28 pin</t>
+  </si>
+  <si>
+    <t>PRT-09175</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9175</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -932,10 +932,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I2" s="6">
         <v>1.5</v>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E8" s="5">
         <v>22232051</v>
@@ -1140,10 +1140,10 @@
         <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I8" s="6">
         <v>0.45</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E9" s="5">
         <v>22232031</v>
@@ -1174,10 +1174,10 @@
         <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I9" s="6">
         <v>0.3</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E10" s="5">
         <v>22232021</v>
@@ -1208,10 +1208,10 @@
         <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I10" s="4">
         <v>0.19</v>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E12" s="5">
         <v>22012057</v>
@@ -1276,10 +1276,10 @@
         <v>32</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I12" s="6">
         <v>0.28999999999999998</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E13" s="5">
         <v>22012037</v>
@@ -1310,10 +1310,10 @@
         <v>32</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I13" s="6">
         <v>0.18</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E14" s="5">
         <v>22012027</v>
@@ -1344,10 +1344,10 @@
         <v>32</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I14" s="6">
         <v>0.1</v>
@@ -1430,25 +1430,25 @@
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="G17" s="9">
         <v>4986181</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I17" s="6">
         <v>12.69</v>
@@ -1463,19 +1463,19 @@
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I18" s="6">
         <v>9.9499999999999993</v>
@@ -1586,26 +1586,26 @@
         <v>102</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="I22" s="6">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="J22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1667,11 +1667,11 @@
         <v>0.19</v>
       </c>
       <c r="J24" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K24" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.76</v>
+        <v>2.2800000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1749,11 +1749,11 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7">
         <f>SUM(Table3[Quantity])</f>
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K28" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>219.57</v>
+        <v>220.14</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1965,29 +1965,29 @@
     <hyperlink ref="G26" r:id="rId44"/>
     <hyperlink ref="G25" r:id="rId45"/>
     <hyperlink ref="G21" r:id="rId46"/>
-    <hyperlink ref="G22" r:id="rId47"/>
-    <hyperlink ref="G17" r:id="rId48" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
-    <hyperlink ref="G2" r:id="rId49"/>
-    <hyperlink ref="E10" r:id="rId50" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="D8" r:id="rId51" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D9" r:id="rId52" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D10" r:id="rId53" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="G10" r:id="rId54" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="E9" r:id="rId55" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="G9" r:id="rId56" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="E8" r:id="rId57" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="G8" r:id="rId58" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="H8" r:id="rId59"/>
-    <hyperlink ref="D12" r:id="rId60" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D13" r:id="rId61" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="D14" r:id="rId62" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E14" r:id="rId63" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
-    <hyperlink ref="G14" r:id="rId64" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
-    <hyperlink ref="E13" r:id="rId65" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
-    <hyperlink ref="G13" r:id="rId66" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
-    <hyperlink ref="G12" r:id="rId67"/>
-    <hyperlink ref="E12" r:id="rId68" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
-    <hyperlink ref="G18" r:id="rId69"/>
+    <hyperlink ref="G17" r:id="rId47" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
+    <hyperlink ref="G2" r:id="rId48"/>
+    <hyperlink ref="E10" r:id="rId49" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="D8" r:id="rId50" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="D9" r:id="rId51" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="D10" r:id="rId52" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G10" r:id="rId53" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="E9" r:id="rId54" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
+    <hyperlink ref="G9" r:id="rId55" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
+    <hyperlink ref="E8" r:id="rId56" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="G8" r:id="rId57" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="H8" r:id="rId58"/>
+    <hyperlink ref="D12" r:id="rId59" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="D13" r:id="rId60" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="D14" r:id="rId61" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E14" r:id="rId62" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
+    <hyperlink ref="G14" r:id="rId63" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
+    <hyperlink ref="E13" r:id="rId64" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
+    <hyperlink ref="G13" r:id="rId65" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
+    <hyperlink ref="G12" r:id="rId66"/>
+    <hyperlink ref="E12" r:id="rId67" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
+    <hyperlink ref="G18" r:id="rId68"/>
+    <hyperlink ref="G22" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="landscape" r:id="rId70"/>
